--- a/build/app/intermediates/flutter/debug/flutter_assets/assets/Recipe_table.xlsx
+++ b/build/app/intermediates/flutter/debug/flutter_assets/assets/Recipe_table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Recipe Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t>pancakes</t>
+    <t>Pancakes</t>
   </si>
   <si>
-    <t>vegan</t>
+    <t>Vegan</t>
   </si>
   <si>
     <t>1 ¼ cups all-purpose flour
@@ -39,12 +39,13 @@
 1 tablespoon oil</t>
   </si>
   <si>
-    <t xml:space="preserve">Sift flour, sugar, baking powder, and salt into a large bowl; make a well in the center. Whisk together water and oil in a small bowl.
- Pour oil and water into flour mixture.
+    <t xml:space="preserve">Sift flour, sugar, baking powder, and salt into a large bowl; make a well in the center. 
+Whisk together water and oil in a small bowl.
+Pour oil and water into flour mixture.
 </t>
   </si>
   <si>
-    <t>spaghettie</t>
+    <t>Spaghetti</t>
   </si>
   <si>
     <t>Italian</t>
@@ -66,12 +67,146 @@
     <t>Cook ground beef in a saucepan over medium-high heat with garlic, onion, and green pepper. Stir until the meat is brown and crumbly. The vegetables should be tender.
 Stir diced tomatoes, tomato sauce, and tomato paste into the beef mixture. Add oregano, basil, salt, and pepper. Simmer until thick and aromatic, then serve over cooked spaghetti noodles.</t>
   </si>
+  <si>
+    <t>Japanese Egg Sandwich</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>3 large eggs (50 g each w/o shell)
+¼ tsp sugar
+¼ tsp Diamond Crystal kosher salt
+⅛ tsp freshly ground black pepper
+2 tsp milk
+2 Tbsp Japanese Kewpie mayonnaise
+4 slices shokupan (Japanese milk bread) 
+salted butter</t>
+  </si>
+  <si>
+    <t>Boil and peel three eggs.
+Transfer the peeled eggs to a bowl and mash with a fork. Try to mash the egg whites into small, same-sized pieces.
+Add ¼ tsp sugar and ¼ tsp Diamond Crystal kosher salt to the eggs. Add ⅛ tsp freshly ground black pepper and 2 tsp milk.
+Add 2 Tbsp Japanese Kewpie mayonnaise and mix very well. Taste and sprinkle more salt and pepper, if needed.
+Assemble sandwich.</t>
+  </si>
+  <si>
+    <t>Cauliflower Mac n Cheese</t>
+  </si>
+  <si>
+    <t>3 cups cauliflower (steamed and chopped)
+1 cup low fat shredded Cheddar
+1 cup low fat shredded Colby Jack
+2 tbsp Half n Half
+2 tbsp reduced fat cream cheese
+¼ tsp garlic powder
+¼ tsp onion powder
+14 tsp ground mustard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preheat oven to 350. In a saucepan over medium-low heat, warm the half and half, cream cheese, garlic powder, onion powder, and mustard. 
+Whisk until creamy, do not allow to boil. 
+Mix cheese together in bowl. Pour 1 1/2 cups of cheese mixture into the saucepan. 
+Stir until cheese is completely melted. 
+Add cauliflower and gently fold until cauliflower is covered. Place mixture into baking dish and top with remaining shredded cheese. 
+Bake for 20-25 minutes until cheese is browned. (If desired broil for the last 2 minutes of baking time).
+</t>
+  </si>
+  <si>
+    <t>Seared Chicken Breasts</t>
+  </si>
+  <si>
+    <t>Keto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinless boneless chicken breasts 
+½ teaspoon salt 
+¼ teaspoon black pepper 
+2 tablespoons cooking fat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preheat the oven to 350°F. Season the chicken breasts evenly on both sides with the salt and pepper. 
+In a large oven-safe skillet, melt the cooking fat over medium-high heat, swirling to coat the bottom of the pan. When the fat is hot, place the chicken top (rounded) side down in the pan and sear for 3 to 4 minutes. 
+Your chicken should pull off the pan  easily once you have a proper sear. Using tongs, turn the chicken over, then put the entire pan in the oven to finish cooking. 
+Bake for 10 to 15 minutes, depending on the thickness of the chicken, until the internal temperature reaches 160°F. Be km sure to use a meat thermometer as you learn this technique. Let the chicken rest for 5 minutes before serving. </t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>¼ cup coconut oil or extra-virgin olive oil
+¼ onion, finely chopped
+1 cup diced zucchini
+1 cup diced yellow squash
+1 cup diced eggplant
+½ teaspoon salt
+½ teaspoon black pepper
+½ cup finely diced green bell pepper
+½ cup finely diced red bell pepper
+2 cloves garlic, minced
+1 cup Tomato Sauce
+1 teaspoon balsamic vinegar
+3 fresh basil leaves, roughly chopped (optional)</t>
+  </si>
+  <si>
+    <t>In a medium pot, heat the oil over medium heat, swirling to coat the bottom of the pot. When the oil is hot, add the onion and cook, stirring, until translucent, 2 to 3 minutes. 
+Add the zucchini, yellow squash, and eggplant and season with the salt and pepper. Cook for 2 minutes, stirring often. 
+Add the green and red bell peppers and continue to cook for 2 to 3 minutes, stirring often. 
+Add the garlic and cook until aromatic, about 1 minute. 
+Add the tomato sauce and ½ cup water. Mix completely and bring to a simmer over low heat. Cook, stirring occasionally, until all the vegetables are tender, about 25 minutes. 
+Transfer to a serving dish, casserole dish, or individual plates, sprinkle with the vinegar, and garnish with the basil, if desired.</t>
+  </si>
+  <si>
+    <t>Lemon-Herb Chicken</t>
+  </si>
+  <si>
+    <t>Keto, Paleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 pounds (1.4 kg) chicken parts—legs, thighs, or breasts
+2 tablespoons (28 g) butter 
+1/2 medium onion, chopped 
+1/4 cup (60 ml) lemon juice 
+1/2 teaspoon chicken bouillon concentrate 
+1/4 cup (15 g) chopped fresh parsley 
+1 tablespoon (2 g) fresh thyme leaves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut the chicken into serving pieces and skin. In your big, heavy skillet, over medium heat, melt the butter and start the chicken browning. 
+In the meantime, chop the onion and throw it in the slow cooker. 
+When the chicken is golden on both sides, use tongs to place the chicken on top of the onion. 
+Mix together the lemon juice and chicken bouillon concentrate until the bouillon dissolves. Pour over the chicken. 
+Chop the parsley and strip the thyme leaves from the stems. Scatter the herbs over the chicken. 
+Cover the pot, set on low, and cook for 5 to 6 hours. Serve chicken with the pan juices spooned over it. </t>
+  </si>
+  <si>
+    <t>Goat Cheese Spinach Frittata</t>
+  </si>
+  <si>
+    <t>1 tablespoon olive oil
+1 small red pepper diced
+1 small box baby spinach 5oz or 140g clamshell box
+6 large eggs
+1/4 cup milk unsweetened, dairy or nondairy, your choice
+1/2 teaspoon of salt
+fresh ground black pepper
+1 teaspoon all purpose low-salt, seasoning mix (or your favourite garlic and herb mix)
+2 oz 70g soft goat cheese</t>
+  </si>
+  <si>
+    <t>Heat olive oil in an oven-safe skillet (like cast-iron) over medium heat. Add red pepper and saute 2-3 minutes. Add green onions and spinach. Saute until spinach wilts. Remove vegetables from the pan and set aside.
+In a medium bowl lightly beat together eggs, milk, salt, pepper, and seasoning.
+Pre-heat broiler.
+Return skillet to the stove-top with heat reduced to medium-low. I don't add any oil at this point, but my cast iron pan is very well seasoned. You may want to add a little oil or spray with cooking spray depending on your pan.
+Pour in eggs. Allow eggs to cook and start to just set on the bottom of the pan. Once the bottom has firmed up slightly, add the spinach mixture, spreading evenly over the eggs. Dot the top of the frittata with goat cheese. Continue to cook on stove-top until the top starts to set. You can even cover the skillet with a lid so that the eggs will begin to firm up. It will begin to puff slightly but you will still see a bit of liquid on the top. (which is okay, this will cook under the broiler in the next step.) Total time on the stove-top, on medium-low heat is 8-10 minutes.
+Once the eggs are mostly set, but still liquid on top, place the skillet directly under the broiler. Watch carefully, you want the top to brown slightly and cheese to bubble a bit, this will only take a couple of minutes. Serve hot or room temperature.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -82,6 +217,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,12 +242,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,59 +471,5099 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="28.5"/>
-    <col customWidth="1" min="6" max="6" width="64.0"/>
+    <col customWidth="1" min="1" max="1" width="5.63"/>
+    <col customWidth="1" min="2" max="2" width="3.13"/>
+    <col customWidth="1" min="3" max="3" width="19.25"/>
+    <col customWidth="1" min="5" max="5" width="34.88"/>
+    <col customWidth="1" min="6" max="6" width="48.25"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
     <row r="4">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="7">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="5"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="1"/>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="1"/>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="1"/>
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="1"/>
+      <c r="E415" s="1"/>
+      <c r="F415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="1"/>
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="1"/>
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="1"/>
+      <c r="E421" s="1"/>
+      <c r="F421" s="1"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="1"/>
+      <c r="E422" s="1"/>
+      <c r="F422" s="1"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="1"/>
+      <c r="E423" s="1"/>
+      <c r="F423" s="1"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="1"/>
+      <c r="E424" s="1"/>
+      <c r="F424" s="1"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="1"/>
+      <c r="E425" s="1"/>
+      <c r="F425" s="1"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="1"/>
+      <c r="E426" s="1"/>
+      <c r="F426" s="1"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="1"/>
+      <c r="E427" s="1"/>
+      <c r="F427" s="1"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="1"/>
+      <c r="E428" s="1"/>
+      <c r="F428" s="1"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="1"/>
+      <c r="E429" s="1"/>
+      <c r="F429" s="1"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="1"/>
+      <c r="E430" s="1"/>
+      <c r="F430" s="1"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="1"/>
+      <c r="E431" s="1"/>
+      <c r="F431" s="1"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="1"/>
+      <c r="E432" s="1"/>
+      <c r="F432" s="1"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="1"/>
+      <c r="E433" s="1"/>
+      <c r="F433" s="1"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="1"/>
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="1"/>
+      <c r="E435" s="1"/>
+      <c r="F435" s="1"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="1"/>
+      <c r="E436" s="1"/>
+      <c r="F436" s="1"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="1"/>
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="1"/>
+      <c r="E438" s="1"/>
+      <c r="F438" s="1"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="1"/>
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="1"/>
+      <c r="E440" s="1"/>
+      <c r="F440" s="1"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="1"/>
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="1"/>
+      <c r="E442" s="1"/>
+      <c r="F442" s="1"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="1"/>
+      <c r="E443" s="1"/>
+      <c r="F443" s="1"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="1"/>
+      <c r="E444" s="1"/>
+      <c r="F444" s="1"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="1"/>
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="1"/>
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="1"/>
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="1"/>
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="1"/>
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="1"/>
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="1"/>
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="1"/>
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="1"/>
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="1"/>
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="1"/>
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="1"/>
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="1"/>
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="1"/>
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="1"/>
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="1"/>
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="1"/>
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="1"/>
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="1"/>
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="1"/>
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="1"/>
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="1"/>
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="1"/>
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="1"/>
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="1"/>
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="1"/>
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="1"/>
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="1"/>
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="1"/>
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="1"/>
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="1"/>
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="1"/>
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="1"/>
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="1"/>
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="1"/>
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="1"/>
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="1"/>
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="1"/>
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="1"/>
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="1"/>
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="1"/>
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="1"/>
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="1"/>
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="1"/>
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="1"/>
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="1"/>
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="1"/>
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="1"/>
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="1"/>
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="1"/>
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="1"/>
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="1"/>
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="1"/>
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="1"/>
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="1"/>
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="1"/>
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="1"/>
+      <c r="E501" s="1"/>
+      <c r="F501" s="1"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="1"/>
+      <c r="E502" s="1"/>
+      <c r="F502" s="1"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="1"/>
+      <c r="E503" s="1"/>
+      <c r="F503" s="1"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="1"/>
+      <c r="E504" s="1"/>
+      <c r="F504" s="1"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="1"/>
+      <c r="E505" s="1"/>
+      <c r="F505" s="1"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="1"/>
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="1"/>
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="1"/>
+      <c r="E508" s="1"/>
+      <c r="F508" s="1"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="1"/>
+      <c r="E509" s="1"/>
+      <c r="F509" s="1"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="1"/>
+      <c r="E510" s="1"/>
+      <c r="F510" s="1"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="1"/>
+      <c r="E511" s="1"/>
+      <c r="F511" s="1"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="1"/>
+      <c r="E512" s="1"/>
+      <c r="F512" s="1"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="1"/>
+      <c r="E513" s="1"/>
+      <c r="F513" s="1"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="1"/>
+      <c r="E514" s="1"/>
+      <c r="F514" s="1"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="1"/>
+      <c r="E515" s="1"/>
+      <c r="F515" s="1"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="1"/>
+      <c r="E516" s="1"/>
+      <c r="F516" s="1"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="1"/>
+      <c r="E517" s="1"/>
+      <c r="F517" s="1"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="1"/>
+      <c r="E518" s="1"/>
+      <c r="F518" s="1"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="1"/>
+      <c r="E519" s="1"/>
+      <c r="F519" s="1"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="1"/>
+      <c r="E520" s="1"/>
+      <c r="F520" s="1"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="1"/>
+      <c r="E521" s="1"/>
+      <c r="F521" s="1"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="1"/>
+      <c r="E522" s="1"/>
+      <c r="F522" s="1"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="1"/>
+      <c r="E523" s="1"/>
+      <c r="F523" s="1"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="1"/>
+      <c r="E524" s="1"/>
+      <c r="F524" s="1"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="1"/>
+      <c r="E525" s="1"/>
+      <c r="F525" s="1"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="1"/>
+      <c r="E526" s="1"/>
+      <c r="F526" s="1"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="1"/>
+      <c r="E527" s="1"/>
+      <c r="F527" s="1"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="1"/>
+      <c r="E528" s="1"/>
+      <c r="F528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="1"/>
+      <c r="E529" s="1"/>
+      <c r="F529" s="1"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="1"/>
+      <c r="E530" s="1"/>
+      <c r="F530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="1"/>
+      <c r="E531" s="1"/>
+      <c r="F531" s="1"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="1"/>
+      <c r="E532" s="1"/>
+      <c r="F532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="1"/>
+      <c r="E533" s="1"/>
+      <c r="F533" s="1"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="1"/>
+      <c r="E534" s="1"/>
+      <c r="F534" s="1"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="1"/>
+      <c r="E535" s="1"/>
+      <c r="F535" s="1"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="1"/>
+      <c r="E536" s="1"/>
+      <c r="F536" s="1"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="1"/>
+      <c r="E537" s="1"/>
+      <c r="F537" s="1"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="1"/>
+      <c r="E538" s="1"/>
+      <c r="F538" s="1"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="1"/>
+      <c r="E539" s="1"/>
+      <c r="F539" s="1"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="1"/>
+      <c r="E540" s="1"/>
+      <c r="F540" s="1"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="1"/>
+      <c r="E541" s="1"/>
+      <c r="F541" s="1"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="1"/>
+      <c r="E542" s="1"/>
+      <c r="F542" s="1"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="1"/>
+      <c r="E543" s="1"/>
+      <c r="F543" s="1"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="1"/>
+      <c r="E544" s="1"/>
+      <c r="F544" s="1"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="1"/>
+      <c r="E545" s="1"/>
+      <c r="F545" s="1"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="1"/>
+      <c r="E546" s="1"/>
+      <c r="F546" s="1"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="1"/>
+      <c r="E547" s="1"/>
+      <c r="F547" s="1"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="1"/>
+      <c r="E548" s="1"/>
+      <c r="F548" s="1"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="1"/>
+      <c r="E549" s="1"/>
+      <c r="F549" s="1"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="1"/>
+      <c r="E550" s="1"/>
+      <c r="F550" s="1"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="1"/>
+      <c r="E551" s="1"/>
+      <c r="F551" s="1"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="1"/>
+      <c r="E552" s="1"/>
+      <c r="F552" s="1"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="1"/>
+      <c r="E553" s="1"/>
+      <c r="F553" s="1"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="1"/>
+      <c r="E554" s="1"/>
+      <c r="F554" s="1"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="1"/>
+      <c r="E555" s="1"/>
+      <c r="F555" s="1"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="1"/>
+      <c r="E556" s="1"/>
+      <c r="F556" s="1"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="1"/>
+      <c r="E557" s="1"/>
+      <c r="F557" s="1"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="1"/>
+      <c r="E558" s="1"/>
+      <c r="F558" s="1"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="1"/>
+      <c r="E559" s="1"/>
+      <c r="F559" s="1"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="1"/>
+      <c r="E560" s="1"/>
+      <c r="F560" s="1"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="1"/>
+      <c r="E561" s="1"/>
+      <c r="F561" s="1"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="1"/>
+      <c r="E562" s="1"/>
+      <c r="F562" s="1"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="1"/>
+      <c r="E563" s="1"/>
+      <c r="F563" s="1"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="1"/>
+      <c r="E564" s="1"/>
+      <c r="F564" s="1"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="1"/>
+      <c r="E565" s="1"/>
+      <c r="F565" s="1"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="1"/>
+      <c r="E566" s="1"/>
+      <c r="F566" s="1"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="1"/>
+      <c r="E567" s="1"/>
+      <c r="F567" s="1"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="1"/>
+      <c r="E568" s="1"/>
+      <c r="F568" s="1"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="1"/>
+      <c r="E569" s="1"/>
+      <c r="F569" s="1"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="1"/>
+      <c r="E570" s="1"/>
+      <c r="F570" s="1"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="1"/>
+      <c r="E571" s="1"/>
+      <c r="F571" s="1"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="1"/>
+      <c r="E572" s="1"/>
+      <c r="F572" s="1"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="1"/>
+      <c r="E573" s="1"/>
+      <c r="F573" s="1"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="1"/>
+      <c r="E574" s="1"/>
+      <c r="F574" s="1"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="1"/>
+      <c r="E575" s="1"/>
+      <c r="F575" s="1"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="1"/>
+      <c r="E576" s="1"/>
+      <c r="F576" s="1"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="1"/>
+      <c r="E577" s="1"/>
+      <c r="F577" s="1"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="1"/>
+      <c r="E578" s="1"/>
+      <c r="F578" s="1"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="1"/>
+      <c r="E579" s="1"/>
+      <c r="F579" s="1"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="1"/>
+      <c r="E580" s="1"/>
+      <c r="F580" s="1"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="1"/>
+      <c r="E581" s="1"/>
+      <c r="F581" s="1"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="1"/>
+      <c r="E582" s="1"/>
+      <c r="F582" s="1"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="1"/>
+      <c r="E583" s="1"/>
+      <c r="F583" s="1"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="1"/>
+      <c r="E584" s="1"/>
+      <c r="F584" s="1"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="1"/>
+      <c r="E585" s="1"/>
+      <c r="F585" s="1"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="1"/>
+      <c r="E586" s="1"/>
+      <c r="F586" s="1"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="1"/>
+      <c r="E587" s="1"/>
+      <c r="F587" s="1"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="1"/>
+      <c r="E588" s="1"/>
+      <c r="F588" s="1"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="1"/>
+      <c r="E589" s="1"/>
+      <c r="F589" s="1"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="1"/>
+      <c r="E590" s="1"/>
+      <c r="F590" s="1"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="1"/>
+      <c r="E591" s="1"/>
+      <c r="F591" s="1"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="1"/>
+      <c r="E592" s="1"/>
+      <c r="F592" s="1"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="1"/>
+      <c r="E593" s="1"/>
+      <c r="F593" s="1"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="1"/>
+      <c r="E594" s="1"/>
+      <c r="F594" s="1"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="1"/>
+      <c r="E595" s="1"/>
+      <c r="F595" s="1"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="1"/>
+      <c r="E596" s="1"/>
+      <c r="F596" s="1"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="1"/>
+      <c r="E597" s="1"/>
+      <c r="F597" s="1"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="1"/>
+      <c r="E598" s="1"/>
+      <c r="F598" s="1"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="1"/>
+      <c r="E599" s="1"/>
+      <c r="F599" s="1"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="1"/>
+      <c r="E600" s="1"/>
+      <c r="F600" s="1"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="1"/>
+      <c r="E601" s="1"/>
+      <c r="F601" s="1"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="1"/>
+      <c r="E602" s="1"/>
+      <c r="F602" s="1"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="1"/>
+      <c r="E603" s="1"/>
+      <c r="F603" s="1"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="1"/>
+      <c r="E604" s="1"/>
+      <c r="F604" s="1"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="1"/>
+      <c r="E605" s="1"/>
+      <c r="F605" s="1"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="1"/>
+      <c r="E606" s="1"/>
+      <c r="F606" s="1"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="1"/>
+      <c r="E607" s="1"/>
+      <c r="F607" s="1"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="1"/>
+      <c r="E608" s="1"/>
+      <c r="F608" s="1"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="1"/>
+      <c r="E609" s="1"/>
+      <c r="F609" s="1"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="1"/>
+      <c r="E610" s="1"/>
+      <c r="F610" s="1"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="1"/>
+      <c r="E611" s="1"/>
+      <c r="F611" s="1"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="1"/>
+      <c r="E612" s="1"/>
+      <c r="F612" s="1"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="1"/>
+      <c r="E613" s="1"/>
+      <c r="F613" s="1"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="1"/>
+      <c r="E614" s="1"/>
+      <c r="F614" s="1"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="1"/>
+      <c r="E615" s="1"/>
+      <c r="F615" s="1"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="1"/>
+      <c r="E616" s="1"/>
+      <c r="F616" s="1"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="1"/>
+      <c r="E617" s="1"/>
+      <c r="F617" s="1"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="1"/>
+      <c r="E618" s="1"/>
+      <c r="F618" s="1"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="1"/>
+      <c r="E619" s="1"/>
+      <c r="F619" s="1"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="1"/>
+      <c r="E620" s="1"/>
+      <c r="F620" s="1"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="1"/>
+      <c r="E621" s="1"/>
+      <c r="F621" s="1"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="1"/>
+      <c r="E622" s="1"/>
+      <c r="F622" s="1"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="1"/>
+      <c r="E623" s="1"/>
+      <c r="F623" s="1"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="1"/>
+      <c r="E624" s="1"/>
+      <c r="F624" s="1"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="1"/>
+      <c r="E625" s="1"/>
+      <c r="F625" s="1"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="1"/>
+      <c r="E626" s="1"/>
+      <c r="F626" s="1"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="1"/>
+      <c r="E627" s="1"/>
+      <c r="F627" s="1"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="1"/>
+      <c r="E628" s="1"/>
+      <c r="F628" s="1"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="1"/>
+      <c r="E629" s="1"/>
+      <c r="F629" s="1"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="1"/>
+      <c r="E630" s="1"/>
+      <c r="F630" s="1"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="1"/>
+      <c r="E631" s="1"/>
+      <c r="F631" s="1"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="1"/>
+      <c r="E632" s="1"/>
+      <c r="F632" s="1"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="1"/>
+      <c r="E633" s="1"/>
+      <c r="F633" s="1"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="1"/>
+      <c r="E634" s="1"/>
+      <c r="F634" s="1"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="1"/>
+      <c r="E635" s="1"/>
+      <c r="F635" s="1"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="1"/>
+      <c r="E636" s="1"/>
+      <c r="F636" s="1"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="1"/>
+      <c r="E637" s="1"/>
+      <c r="F637" s="1"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="1"/>
+      <c r="E638" s="1"/>
+      <c r="F638" s="1"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="1"/>
+      <c r="E639" s="1"/>
+      <c r="F639" s="1"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="1"/>
+      <c r="E640" s="1"/>
+      <c r="F640" s="1"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="1"/>
+      <c r="E641" s="1"/>
+      <c r="F641" s="1"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="1"/>
+      <c r="E642" s="1"/>
+      <c r="F642" s="1"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="1"/>
+      <c r="E643" s="1"/>
+      <c r="F643" s="1"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="1"/>
+      <c r="E644" s="1"/>
+      <c r="F644" s="1"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="1"/>
+      <c r="E645" s="1"/>
+      <c r="F645" s="1"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="1"/>
+      <c r="E646" s="1"/>
+      <c r="F646" s="1"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="1"/>
+      <c r="E647" s="1"/>
+      <c r="F647" s="1"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="1"/>
+      <c r="E648" s="1"/>
+      <c r="F648" s="1"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="1"/>
+      <c r="E649" s="1"/>
+      <c r="F649" s="1"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="1"/>
+      <c r="E650" s="1"/>
+      <c r="F650" s="1"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="1"/>
+      <c r="E651" s="1"/>
+      <c r="F651" s="1"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="1"/>
+      <c r="E652" s="1"/>
+      <c r="F652" s="1"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="1"/>
+      <c r="E653" s="1"/>
+      <c r="F653" s="1"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="1"/>
+      <c r="E654" s="1"/>
+      <c r="F654" s="1"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="1"/>
+      <c r="E655" s="1"/>
+      <c r="F655" s="1"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="1"/>
+      <c r="E656" s="1"/>
+      <c r="F656" s="1"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="1"/>
+      <c r="E657" s="1"/>
+      <c r="F657" s="1"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="1"/>
+      <c r="E658" s="1"/>
+      <c r="F658" s="1"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="1"/>
+      <c r="E659" s="1"/>
+      <c r="F659" s="1"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="1"/>
+      <c r="E660" s="1"/>
+      <c r="F660" s="1"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="1"/>
+      <c r="E661" s="1"/>
+      <c r="F661" s="1"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="1"/>
+      <c r="E662" s="1"/>
+      <c r="F662" s="1"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="1"/>
+      <c r="E663" s="1"/>
+      <c r="F663" s="1"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="1"/>
+      <c r="E664" s="1"/>
+      <c r="F664" s="1"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="1"/>
+      <c r="E665" s="1"/>
+      <c r="F665" s="1"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="1"/>
+      <c r="E666" s="1"/>
+      <c r="F666" s="1"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="1"/>
+      <c r="E667" s="1"/>
+      <c r="F667" s="1"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="1"/>
+      <c r="E668" s="1"/>
+      <c r="F668" s="1"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="1"/>
+      <c r="E669" s="1"/>
+      <c r="F669" s="1"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="1"/>
+      <c r="E670" s="1"/>
+      <c r="F670" s="1"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="1"/>
+      <c r="E671" s="1"/>
+      <c r="F671" s="1"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="1"/>
+      <c r="E672" s="1"/>
+      <c r="F672" s="1"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="1"/>
+      <c r="E673" s="1"/>
+      <c r="F673" s="1"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="1"/>
+      <c r="E674" s="1"/>
+      <c r="F674" s="1"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="1"/>
+      <c r="E675" s="1"/>
+      <c r="F675" s="1"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="1"/>
+      <c r="E676" s="1"/>
+      <c r="F676" s="1"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="1"/>
+      <c r="E677" s="1"/>
+      <c r="F677" s="1"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="1"/>
+      <c r="E678" s="1"/>
+      <c r="F678" s="1"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="1"/>
+      <c r="E679" s="1"/>
+      <c r="F679" s="1"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="1"/>
+      <c r="E680" s="1"/>
+      <c r="F680" s="1"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="1"/>
+      <c r="E681" s="1"/>
+      <c r="F681" s="1"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="1"/>
+      <c r="E682" s="1"/>
+      <c r="F682" s="1"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="1"/>
+      <c r="E683" s="1"/>
+      <c r="F683" s="1"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="1"/>
+      <c r="E684" s="1"/>
+      <c r="F684" s="1"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="1"/>
+      <c r="E685" s="1"/>
+      <c r="F685" s="1"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="1"/>
+      <c r="E686" s="1"/>
+      <c r="F686" s="1"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="1"/>
+      <c r="E687" s="1"/>
+      <c r="F687" s="1"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="1"/>
+      <c r="E688" s="1"/>
+      <c r="F688" s="1"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="1"/>
+      <c r="E689" s="1"/>
+      <c r="F689" s="1"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="1"/>
+      <c r="E690" s="1"/>
+      <c r="F690" s="1"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="1"/>
+      <c r="E691" s="1"/>
+      <c r="F691" s="1"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="1"/>
+      <c r="E692" s="1"/>
+      <c r="F692" s="1"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="1"/>
+      <c r="E693" s="1"/>
+      <c r="F693" s="1"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="1"/>
+      <c r="E694" s="1"/>
+      <c r="F694" s="1"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="1"/>
+      <c r="E695" s="1"/>
+      <c r="F695" s="1"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="1"/>
+      <c r="E696" s="1"/>
+      <c r="F696" s="1"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="1"/>
+      <c r="E697" s="1"/>
+      <c r="F697" s="1"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="1"/>
+      <c r="E698" s="1"/>
+      <c r="F698" s="1"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="1"/>
+      <c r="E699" s="1"/>
+      <c r="F699" s="1"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="1"/>
+      <c r="E700" s="1"/>
+      <c r="F700" s="1"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="1"/>
+      <c r="E701" s="1"/>
+      <c r="F701" s="1"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="1"/>
+      <c r="E702" s="1"/>
+      <c r="F702" s="1"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="1"/>
+      <c r="E703" s="1"/>
+      <c r="F703" s="1"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="1"/>
+      <c r="E704" s="1"/>
+      <c r="F704" s="1"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="1"/>
+      <c r="E705" s="1"/>
+      <c r="F705" s="1"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="1"/>
+      <c r="E706" s="1"/>
+      <c r="F706" s="1"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="1"/>
+      <c r="E707" s="1"/>
+      <c r="F707" s="1"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="1"/>
+      <c r="E708" s="1"/>
+      <c r="F708" s="1"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="1"/>
+      <c r="E709" s="1"/>
+      <c r="F709" s="1"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="1"/>
+      <c r="E710" s="1"/>
+      <c r="F710" s="1"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="1"/>
+      <c r="E711" s="1"/>
+      <c r="F711" s="1"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="1"/>
+      <c r="E712" s="1"/>
+      <c r="F712" s="1"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="1"/>
+      <c r="E713" s="1"/>
+      <c r="F713" s="1"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="1"/>
+      <c r="E714" s="1"/>
+      <c r="F714" s="1"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="1"/>
+      <c r="E715" s="1"/>
+      <c r="F715" s="1"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="1"/>
+      <c r="E716" s="1"/>
+      <c r="F716" s="1"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="1"/>
+      <c r="E717" s="1"/>
+      <c r="F717" s="1"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="1"/>
+      <c r="E718" s="1"/>
+      <c r="F718" s="1"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="1"/>
+      <c r="E719" s="1"/>
+      <c r="F719" s="1"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="1"/>
+      <c r="E720" s="1"/>
+      <c r="F720" s="1"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="1"/>
+      <c r="E721" s="1"/>
+      <c r="F721" s="1"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="1"/>
+      <c r="E722" s="1"/>
+      <c r="F722" s="1"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="1"/>
+      <c r="E723" s="1"/>
+      <c r="F723" s="1"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="1"/>
+      <c r="E724" s="1"/>
+      <c r="F724" s="1"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="1"/>
+      <c r="E725" s="1"/>
+      <c r="F725" s="1"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="1"/>
+      <c r="E726" s="1"/>
+      <c r="F726" s="1"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="1"/>
+      <c r="E727" s="1"/>
+      <c r="F727" s="1"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="1"/>
+      <c r="E728" s="1"/>
+      <c r="F728" s="1"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="1"/>
+      <c r="E729" s="1"/>
+      <c r="F729" s="1"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="1"/>
+      <c r="E730" s="1"/>
+      <c r="F730" s="1"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="1"/>
+      <c r="E731" s="1"/>
+      <c r="F731" s="1"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="1"/>
+      <c r="E732" s="1"/>
+      <c r="F732" s="1"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="1"/>
+      <c r="E733" s="1"/>
+      <c r="F733" s="1"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="1"/>
+      <c r="E734" s="1"/>
+      <c r="F734" s="1"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="1"/>
+      <c r="E735" s="1"/>
+      <c r="F735" s="1"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="1"/>
+      <c r="E736" s="1"/>
+      <c r="F736" s="1"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="1"/>
+      <c r="E737" s="1"/>
+      <c r="F737" s="1"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="1"/>
+      <c r="E738" s="1"/>
+      <c r="F738" s="1"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="1"/>
+      <c r="E739" s="1"/>
+      <c r="F739" s="1"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="1"/>
+      <c r="E740" s="1"/>
+      <c r="F740" s="1"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="1"/>
+      <c r="E741" s="1"/>
+      <c r="F741" s="1"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="1"/>
+      <c r="E742" s="1"/>
+      <c r="F742" s="1"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="1"/>
+      <c r="E743" s="1"/>
+      <c r="F743" s="1"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="1"/>
+      <c r="E744" s="1"/>
+      <c r="F744" s="1"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="1"/>
+      <c r="E745" s="1"/>
+      <c r="F745" s="1"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="1"/>
+      <c r="E746" s="1"/>
+      <c r="F746" s="1"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="1"/>
+      <c r="E747" s="1"/>
+      <c r="F747" s="1"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="1"/>
+      <c r="E748" s="1"/>
+      <c r="F748" s="1"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="1"/>
+      <c r="E749" s="1"/>
+      <c r="F749" s="1"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="1"/>
+      <c r="E750" s="1"/>
+      <c r="F750" s="1"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="1"/>
+      <c r="E751" s="1"/>
+      <c r="F751" s="1"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="1"/>
+      <c r="E752" s="1"/>
+      <c r="F752" s="1"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="1"/>
+      <c r="E753" s="1"/>
+      <c r="F753" s="1"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="1"/>
+      <c r="E754" s="1"/>
+      <c r="F754" s="1"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="1"/>
+      <c r="E755" s="1"/>
+      <c r="F755" s="1"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="1"/>
+      <c r="E756" s="1"/>
+      <c r="F756" s="1"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="1"/>
+      <c r="E757" s="1"/>
+      <c r="F757" s="1"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="1"/>
+      <c r="E758" s="1"/>
+      <c r="F758" s="1"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="1"/>
+      <c r="E759" s="1"/>
+      <c r="F759" s="1"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="1"/>
+      <c r="E760" s="1"/>
+      <c r="F760" s="1"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="1"/>
+      <c r="E761" s="1"/>
+      <c r="F761" s="1"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="1"/>
+      <c r="E762" s="1"/>
+      <c r="F762" s="1"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="1"/>
+      <c r="E763" s="1"/>
+      <c r="F763" s="1"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="1"/>
+      <c r="E764" s="1"/>
+      <c r="F764" s="1"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="1"/>
+      <c r="E765" s="1"/>
+      <c r="F765" s="1"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="1"/>
+      <c r="E766" s="1"/>
+      <c r="F766" s="1"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="1"/>
+      <c r="E767" s="1"/>
+      <c r="F767" s="1"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="1"/>
+      <c r="E768" s="1"/>
+      <c r="F768" s="1"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="1"/>
+      <c r="E769" s="1"/>
+      <c r="F769" s="1"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="1"/>
+      <c r="E770" s="1"/>
+      <c r="F770" s="1"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="1"/>
+      <c r="E771" s="1"/>
+      <c r="F771" s="1"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="1"/>
+      <c r="E772" s="1"/>
+      <c r="F772" s="1"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="1"/>
+      <c r="E773" s="1"/>
+      <c r="F773" s="1"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="1"/>
+      <c r="E774" s="1"/>
+      <c r="F774" s="1"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="1"/>
+      <c r="E775" s="1"/>
+      <c r="F775" s="1"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="1"/>
+      <c r="E776" s="1"/>
+      <c r="F776" s="1"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="1"/>
+      <c r="E777" s="1"/>
+      <c r="F777" s="1"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="1"/>
+      <c r="E778" s="1"/>
+      <c r="F778" s="1"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="1"/>
+      <c r="E779" s="1"/>
+      <c r="F779" s="1"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="1"/>
+      <c r="E780" s="1"/>
+      <c r="F780" s="1"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="1"/>
+      <c r="E781" s="1"/>
+      <c r="F781" s="1"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="1"/>
+      <c r="E782" s="1"/>
+      <c r="F782" s="1"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="1"/>
+      <c r="E783" s="1"/>
+      <c r="F783" s="1"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="1"/>
+      <c r="E784" s="1"/>
+      <c r="F784" s="1"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="1"/>
+      <c r="E785" s="1"/>
+      <c r="F785" s="1"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="1"/>
+      <c r="E786" s="1"/>
+      <c r="F786" s="1"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="1"/>
+      <c r="E787" s="1"/>
+      <c r="F787" s="1"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="1"/>
+      <c r="E788" s="1"/>
+      <c r="F788" s="1"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="1"/>
+      <c r="E789" s="1"/>
+      <c r="F789" s="1"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="1"/>
+      <c r="E790" s="1"/>
+      <c r="F790" s="1"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="1"/>
+      <c r="E791" s="1"/>
+      <c r="F791" s="1"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="1"/>
+      <c r="E792" s="1"/>
+      <c r="F792" s="1"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="1"/>
+      <c r="E793" s="1"/>
+      <c r="F793" s="1"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="1"/>
+      <c r="E794" s="1"/>
+      <c r="F794" s="1"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="1"/>
+      <c r="E795" s="1"/>
+      <c r="F795" s="1"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="1"/>
+      <c r="E796" s="1"/>
+      <c r="F796" s="1"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="1"/>
+      <c r="E797" s="1"/>
+      <c r="F797" s="1"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="1"/>
+      <c r="E798" s="1"/>
+      <c r="F798" s="1"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="1"/>
+      <c r="E799" s="1"/>
+      <c r="F799" s="1"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="1"/>
+      <c r="E800" s="1"/>
+      <c r="F800" s="1"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="1"/>
+      <c r="E801" s="1"/>
+      <c r="F801" s="1"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="1"/>
+      <c r="E802" s="1"/>
+      <c r="F802" s="1"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="1"/>
+      <c r="E803" s="1"/>
+      <c r="F803" s="1"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="1"/>
+      <c r="E804" s="1"/>
+      <c r="F804" s="1"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="1"/>
+      <c r="E805" s="1"/>
+      <c r="F805" s="1"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="1"/>
+      <c r="E806" s="1"/>
+      <c r="F806" s="1"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="1"/>
+      <c r="E807" s="1"/>
+      <c r="F807" s="1"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="1"/>
+      <c r="E808" s="1"/>
+      <c r="F808" s="1"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="1"/>
+      <c r="E809" s="1"/>
+      <c r="F809" s="1"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="1"/>
+      <c r="E810" s="1"/>
+      <c r="F810" s="1"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="1"/>
+      <c r="E811" s="1"/>
+      <c r="F811" s="1"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="1"/>
+      <c r="E812" s="1"/>
+      <c r="F812" s="1"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="1"/>
+      <c r="E813" s="1"/>
+      <c r="F813" s="1"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="1"/>
+      <c r="E814" s="1"/>
+      <c r="F814" s="1"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="1"/>
+      <c r="E815" s="1"/>
+      <c r="F815" s="1"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="1"/>
+      <c r="E816" s="1"/>
+      <c r="F816" s="1"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="1"/>
+      <c r="E817" s="1"/>
+      <c r="F817" s="1"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="1"/>
+      <c r="E818" s="1"/>
+      <c r="F818" s="1"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="1"/>
+      <c r="E819" s="1"/>
+      <c r="F819" s="1"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="1"/>
+      <c r="E820" s="1"/>
+      <c r="F820" s="1"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="1"/>
+      <c r="E821" s="1"/>
+      <c r="F821" s="1"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="1"/>
+      <c r="E822" s="1"/>
+      <c r="F822" s="1"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="1"/>
+      <c r="E823" s="1"/>
+      <c r="F823" s="1"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="1"/>
+      <c r="E824" s="1"/>
+      <c r="F824" s="1"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="1"/>
+      <c r="E825" s="1"/>
+      <c r="F825" s="1"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="1"/>
+      <c r="E826" s="1"/>
+      <c r="F826" s="1"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="1"/>
+      <c r="E827" s="1"/>
+      <c r="F827" s="1"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="1"/>
+      <c r="E828" s="1"/>
+      <c r="F828" s="1"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="1"/>
+      <c r="E829" s="1"/>
+      <c r="F829" s="1"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="1"/>
+      <c r="E830" s="1"/>
+      <c r="F830" s="1"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="1"/>
+      <c r="E831" s="1"/>
+      <c r="F831" s="1"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="1"/>
+      <c r="E832" s="1"/>
+      <c r="F832" s="1"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="1"/>
+      <c r="E833" s="1"/>
+      <c r="F833" s="1"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="1"/>
+      <c r="E834" s="1"/>
+      <c r="F834" s="1"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="1"/>
+      <c r="E835" s="1"/>
+      <c r="F835" s="1"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="1"/>
+      <c r="E836" s="1"/>
+      <c r="F836" s="1"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="1"/>
+      <c r="E837" s="1"/>
+      <c r="F837" s="1"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="1"/>
+      <c r="E838" s="1"/>
+      <c r="F838" s="1"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="1"/>
+      <c r="E839" s="1"/>
+      <c r="F839" s="1"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="1"/>
+      <c r="E840" s="1"/>
+      <c r="F840" s="1"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="1"/>
+      <c r="E841" s="1"/>
+      <c r="F841" s="1"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="1"/>
+      <c r="E842" s="1"/>
+      <c r="F842" s="1"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="1"/>
+      <c r="E843" s="1"/>
+      <c r="F843" s="1"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="1"/>
+      <c r="E844" s="1"/>
+      <c r="F844" s="1"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="1"/>
+      <c r="E845" s="1"/>
+      <c r="F845" s="1"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="1"/>
+      <c r="E846" s="1"/>
+      <c r="F846" s="1"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="1"/>
+      <c r="E847" s="1"/>
+      <c r="F847" s="1"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="1"/>
+      <c r="E848" s="1"/>
+      <c r="F848" s="1"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="1"/>
+      <c r="E849" s="1"/>
+      <c r="F849" s="1"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="1"/>
+      <c r="E850" s="1"/>
+      <c r="F850" s="1"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="1"/>
+      <c r="E851" s="1"/>
+      <c r="F851" s="1"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="1"/>
+      <c r="E852" s="1"/>
+      <c r="F852" s="1"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="1"/>
+      <c r="E853" s="1"/>
+      <c r="F853" s="1"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="1"/>
+      <c r="E854" s="1"/>
+      <c r="F854" s="1"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="1"/>
+      <c r="E855" s="1"/>
+      <c r="F855" s="1"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="1"/>
+      <c r="E856" s="1"/>
+      <c r="F856" s="1"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="1"/>
+      <c r="E857" s="1"/>
+      <c r="F857" s="1"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="1"/>
+      <c r="E858" s="1"/>
+      <c r="F858" s="1"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="1"/>
+      <c r="E859" s="1"/>
+      <c r="F859" s="1"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="1"/>
+      <c r="E860" s="1"/>
+      <c r="F860" s="1"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="1"/>
+      <c r="E861" s="1"/>
+      <c r="F861" s="1"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="1"/>
+      <c r="E862" s="1"/>
+      <c r="F862" s="1"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="1"/>
+      <c r="E863" s="1"/>
+      <c r="F863" s="1"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="1"/>
+      <c r="E864" s="1"/>
+      <c r="F864" s="1"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="1"/>
+      <c r="E865" s="1"/>
+      <c r="F865" s="1"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="1"/>
+      <c r="E866" s="1"/>
+      <c r="F866" s="1"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="1"/>
+      <c r="E867" s="1"/>
+      <c r="F867" s="1"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="1"/>
+      <c r="E868" s="1"/>
+      <c r="F868" s="1"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="1"/>
+      <c r="E869" s="1"/>
+      <c r="F869" s="1"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="1"/>
+      <c r="E870" s="1"/>
+      <c r="F870" s="1"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="1"/>
+      <c r="E871" s="1"/>
+      <c r="F871" s="1"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="1"/>
+      <c r="E872" s="1"/>
+      <c r="F872" s="1"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="1"/>
+      <c r="E873" s="1"/>
+      <c r="F873" s="1"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="1"/>
+      <c r="E874" s="1"/>
+      <c r="F874" s="1"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="1"/>
+      <c r="E875" s="1"/>
+      <c r="F875" s="1"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="1"/>
+      <c r="E876" s="1"/>
+      <c r="F876" s="1"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="1"/>
+      <c r="E877" s="1"/>
+      <c r="F877" s="1"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="1"/>
+      <c r="E878" s="1"/>
+      <c r="F878" s="1"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="1"/>
+      <c r="E879" s="1"/>
+      <c r="F879" s="1"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="1"/>
+      <c r="E880" s="1"/>
+      <c r="F880" s="1"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="1"/>
+      <c r="E881" s="1"/>
+      <c r="F881" s="1"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="1"/>
+      <c r="E882" s="1"/>
+      <c r="F882" s="1"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="1"/>
+      <c r="E883" s="1"/>
+      <c r="F883" s="1"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="1"/>
+      <c r="E884" s="1"/>
+      <c r="F884" s="1"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="1"/>
+      <c r="E885" s="1"/>
+      <c r="F885" s="1"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="1"/>
+      <c r="E886" s="1"/>
+      <c r="F886" s="1"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="1"/>
+      <c r="E887" s="1"/>
+      <c r="F887" s="1"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="1"/>
+      <c r="E888" s="1"/>
+      <c r="F888" s="1"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="1"/>
+      <c r="E889" s="1"/>
+      <c r="F889" s="1"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="1"/>
+      <c r="E890" s="1"/>
+      <c r="F890" s="1"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="1"/>
+      <c r="E891" s="1"/>
+      <c r="F891" s="1"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="1"/>
+      <c r="E892" s="1"/>
+      <c r="F892" s="1"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="1"/>
+      <c r="E893" s="1"/>
+      <c r="F893" s="1"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="1"/>
+      <c r="E894" s="1"/>
+      <c r="F894" s="1"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="1"/>
+      <c r="E895" s="1"/>
+      <c r="F895" s="1"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="1"/>
+      <c r="E896" s="1"/>
+      <c r="F896" s="1"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="1"/>
+      <c r="E897" s="1"/>
+      <c r="F897" s="1"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="1"/>
+      <c r="E898" s="1"/>
+      <c r="F898" s="1"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="1"/>
+      <c r="E899" s="1"/>
+      <c r="F899" s="1"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="1"/>
+      <c r="E900" s="1"/>
+      <c r="F900" s="1"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="1"/>
+      <c r="E901" s="1"/>
+      <c r="F901" s="1"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="1"/>
+      <c r="E902" s="1"/>
+      <c r="F902" s="1"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="1"/>
+      <c r="E903" s="1"/>
+      <c r="F903" s="1"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="1"/>
+      <c r="E904" s="1"/>
+      <c r="F904" s="1"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="1"/>
+      <c r="E905" s="1"/>
+      <c r="F905" s="1"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="1"/>
+      <c r="E906" s="1"/>
+      <c r="F906" s="1"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="1"/>
+      <c r="E907" s="1"/>
+      <c r="F907" s="1"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="1"/>
+      <c r="E908" s="1"/>
+      <c r="F908" s="1"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="1"/>
+      <c r="E909" s="1"/>
+      <c r="F909" s="1"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="1"/>
+      <c r="E910" s="1"/>
+      <c r="F910" s="1"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="1"/>
+      <c r="E911" s="1"/>
+      <c r="F911" s="1"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="1"/>
+      <c r="E912" s="1"/>
+      <c r="F912" s="1"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="1"/>
+      <c r="E913" s="1"/>
+      <c r="F913" s="1"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="1"/>
+      <c r="E914" s="1"/>
+      <c r="F914" s="1"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="1"/>
+      <c r="E915" s="1"/>
+      <c r="F915" s="1"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="1"/>
+      <c r="E916" s="1"/>
+      <c r="F916" s="1"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="1"/>
+      <c r="E917" s="1"/>
+      <c r="F917" s="1"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="1"/>
+      <c r="E918" s="1"/>
+      <c r="F918" s="1"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="1"/>
+      <c r="E919" s="1"/>
+      <c r="F919" s="1"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="1"/>
+      <c r="E920" s="1"/>
+      <c r="F920" s="1"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="1"/>
+      <c r="E921" s="1"/>
+      <c r="F921" s="1"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="1"/>
+      <c r="E922" s="1"/>
+      <c r="F922" s="1"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="1"/>
+      <c r="E923" s="1"/>
+      <c r="F923" s="1"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="1"/>
+      <c r="E924" s="1"/>
+      <c r="F924" s="1"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="1"/>
+      <c r="E925" s="1"/>
+      <c r="F925" s="1"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="1"/>
+      <c r="E926" s="1"/>
+      <c r="F926" s="1"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="1"/>
+      <c r="E927" s="1"/>
+      <c r="F927" s="1"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="1"/>
+      <c r="E928" s="1"/>
+      <c r="F928" s="1"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="1"/>
+      <c r="E929" s="1"/>
+      <c r="F929" s="1"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="1"/>
+      <c r="E930" s="1"/>
+      <c r="F930" s="1"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="1"/>
+      <c r="E931" s="1"/>
+      <c r="F931" s="1"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="1"/>
+      <c r="E932" s="1"/>
+      <c r="F932" s="1"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="1"/>
+      <c r="E933" s="1"/>
+      <c r="F933" s="1"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="1"/>
+      <c r="E934" s="1"/>
+      <c r="F934" s="1"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="1"/>
+      <c r="E935" s="1"/>
+      <c r="F935" s="1"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="1"/>
+      <c r="E936" s="1"/>
+      <c r="F936" s="1"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="1"/>
+      <c r="E937" s="1"/>
+      <c r="F937" s="1"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="1"/>
+      <c r="E938" s="1"/>
+      <c r="F938" s="1"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="1"/>
+      <c r="E939" s="1"/>
+      <c r="F939" s="1"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="1"/>
+      <c r="E940" s="1"/>
+      <c r="F940" s="1"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="1"/>
+      <c r="E941" s="1"/>
+      <c r="F941" s="1"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="1"/>
+      <c r="E942" s="1"/>
+      <c r="F942" s="1"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="1"/>
+      <c r="E943" s="1"/>
+      <c r="F943" s="1"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="1"/>
+      <c r="E944" s="1"/>
+      <c r="F944" s="1"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="1"/>
+      <c r="E945" s="1"/>
+      <c r="F945" s="1"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="1"/>
+      <c r="E946" s="1"/>
+      <c r="F946" s="1"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="1"/>
+      <c r="E947" s="1"/>
+      <c r="F947" s="1"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="1"/>
+      <c r="E948" s="1"/>
+      <c r="F948" s="1"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="1"/>
+      <c r="E949" s="1"/>
+      <c r="F949" s="1"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="1"/>
+      <c r="E950" s="1"/>
+      <c r="F950" s="1"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="1"/>
+      <c r="E951" s="1"/>
+      <c r="F951" s="1"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="1"/>
+      <c r="E952" s="1"/>
+      <c r="F952" s="1"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="1"/>
+      <c r="E953" s="1"/>
+      <c r="F953" s="1"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="1"/>
+      <c r="E954" s="1"/>
+      <c r="F954" s="1"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="1"/>
+      <c r="E955" s="1"/>
+      <c r="F955" s="1"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="1"/>
+      <c r="E956" s="1"/>
+      <c r="F956" s="1"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="1"/>
+      <c r="E957" s="1"/>
+      <c r="F957" s="1"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="1"/>
+      <c r="E958" s="1"/>
+      <c r="F958" s="1"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="1"/>
+      <c r="E959" s="1"/>
+      <c r="F959" s="1"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="1"/>
+      <c r="E960" s="1"/>
+      <c r="F960" s="1"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="1"/>
+      <c r="E961" s="1"/>
+      <c r="F961" s="1"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="1"/>
+      <c r="E962" s="1"/>
+      <c r="F962" s="1"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="1"/>
+      <c r="E963" s="1"/>
+      <c r="F963" s="1"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="1"/>
+      <c r="E964" s="1"/>
+      <c r="F964" s="1"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="1"/>
+      <c r="E965" s="1"/>
+      <c r="F965" s="1"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="1"/>
+      <c r="E966" s="1"/>
+      <c r="F966" s="1"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="1"/>
+      <c r="E967" s="1"/>
+      <c r="F967" s="1"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="1"/>
+      <c r="E968" s="1"/>
+      <c r="F968" s="1"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="1"/>
+      <c r="E969" s="1"/>
+      <c r="F969" s="1"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="1"/>
+      <c r="E970" s="1"/>
+      <c r="F970" s="1"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="1"/>
+      <c r="E971" s="1"/>
+      <c r="F971" s="1"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="1"/>
+      <c r="E972" s="1"/>
+      <c r="F972" s="1"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="1"/>
+      <c r="E973" s="1"/>
+      <c r="F973" s="1"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="1"/>
+      <c r="E974" s="1"/>
+      <c r="F974" s="1"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="1"/>
+      <c r="E975" s="1"/>
+      <c r="F975" s="1"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="1"/>
+      <c r="E976" s="1"/>
+      <c r="F976" s="1"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="1"/>
+      <c r="E977" s="1"/>
+      <c r="F977" s="1"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="1"/>
+      <c r="E978" s="1"/>
+      <c r="F978" s="1"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="1"/>
+      <c r="E979" s="1"/>
+      <c r="F979" s="1"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="1"/>
+      <c r="E980" s="1"/>
+      <c r="F980" s="1"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="1"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="1"/>
+      <c r="E982" s="1"/>
+      <c r="F982" s="1"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="1"/>
+      <c r="E983" s="1"/>
+      <c r="F983" s="1"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="1"/>
+      <c r="E984" s="1"/>
+      <c r="F984" s="1"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="1"/>
+      <c r="E985" s="1"/>
+      <c r="F985" s="1"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="1"/>
+      <c r="E986" s="1"/>
+      <c r="F986" s="1"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="1"/>
+      <c r="E987" s="1"/>
+      <c r="F987" s="1"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="1"/>
+      <c r="E988" s="1"/>
+      <c r="F988" s="1"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="1"/>
+      <c r="E989" s="1"/>
+      <c r="F989" s="1"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="1"/>
+      <c r="E990" s="1"/>
+      <c r="F990" s="1"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="1"/>
+      <c r="E991" s="1"/>
+      <c r="F991" s="1"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="1"/>
+      <c r="E992" s="1"/>
+      <c r="F992" s="1"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="1"/>
+      <c r="E993" s="1"/>
+      <c r="F993" s="1"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="1"/>
+      <c r="E994" s="1"/>
+      <c r="F994" s="1"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="1"/>
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="1"/>
+      <c r="E996" s="1"/>
+      <c r="F996" s="1"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="1"/>
+      <c r="E997" s="1"/>
+      <c r="F997" s="1"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="1"/>
+      <c r="E998" s="1"/>
+      <c r="F998" s="1"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="1"/>
+      <c r="E999" s="1"/>
+      <c r="F999" s="1"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+    </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/build/app/intermediates/flutter/debug/flutter_assets/assets/Recipe_table.xlsx
+++ b/build/app/intermediates/flutter/debug/flutter_assets/assets/Recipe_table.xlsx
@@ -31,11 +31,11 @@
     <t>Vegan</t>
   </si>
   <si>
-    <t>1 ¼ cups all-purpose flour
+    <t>1 1/4 cups all-purpose flour
 2 tablespoons white sugar
-2 teaspoons baking powder
-½ teaspoon salt
-1 ¼ cups water
+2 tsp baking powder
+1/2 tsp salt
+1 1/4 cups water
 1 tablespoon oil</t>
   </si>
   <si>
@@ -55,13 +55,13 @@
 1 medium onion, chopped
 4 cloves garlic, minced
 1 small green bell pepper, diced
-1 (28 ounce) can diced tomatoes
-1 (16 ounce) can tomato sauce
-1 (6 ounce) can tomato paste
-2 teaspoons dried oregano
-2 teaspoons dried basil
-1 teaspoon salt
-½ teaspoon ground black pepper</t>
+1 can diced tomatoes
+1 can tomato sauce
+1 can tomato paste
+2 tsp dried oregano
+2 tsp dried basil
+1 tsp salt
+1/2 tsp ground black pepper</t>
   </si>
   <si>
     <t>Cook ground beef in a saucepan over medium-high heat with garlic, onion, and green pepper. Stir until the meat is brown and crumbly. The vegetables should be tender.
@@ -74,10 +74,10 @@
     <t>Vegetarian</t>
   </si>
   <si>
-    <t>3 large eggs (50 g each w/o shell)
-¼ tsp sugar
-¼ tsp Diamond Crystal kosher salt
-⅛ tsp freshly ground black pepper
+    <t>3 large eggs
+1/4 tsp sugar
+1/4 tsp Diamond Crystal kosher salt
+1/8 tsp freshly ground black pepper
 2 tsp milk
 2 Tbsp Japanese Kewpie mayonnaise
 4 slices shokupan (Japanese milk bread) 
@@ -99,8 +99,8 @@
 1 cup low fat shredded Colby Jack
 2 tbsp Half n Half
 2 tbsp reduced fat cream cheese
-¼ tsp garlic powder
-¼ tsp onion powder
+1/4 tsp garlic powder
+1/4 tsp onion powder
 14 tsp ground mustard</t>
   </si>
   <si>
@@ -120,8 +120,8 @@
   </si>
   <si>
     <t xml:space="preserve">skinless boneless chicken breasts 
-½ teaspoon salt 
-¼ teaspoon black pepper 
+1/2 tsp salt 
+1/4 tsp black pepper 
 2 tablespoons cooking fat </t>
   </si>
   <si>
@@ -134,19 +134,19 @@
     <t>Ratatouille</t>
   </si>
   <si>
-    <t>¼ cup coconut oil or extra-virgin olive oil
-¼ onion, finely chopped
+    <t>1/4 cup coconut oil or extra-virgin olive oil
+1/4 onion, finely chopped
 1 cup diced zucchini
 1 cup diced yellow squash
 1 cup diced eggplant
-½ teaspoon salt
-½ teaspoon black pepper
-½ cup finely diced green bell pepper
-½ cup finely diced red bell pepper
+1/2 teaspoon salt
+1/2 teaspoon black pepper
+1/2 cup finely diced green bell pepper
+1/2 cup finely diced red bell pepper
 2 cloves garlic, minced
 1 cup Tomato Sauce
 1 teaspoon balsamic vinegar
-3 fresh basil leaves, roughly chopped (optional)</t>
+3 fresh basil leaves, roughly chopped</t>
   </si>
   <si>
     <t>In a medium pot, heat the oil over medium heat, swirling to coat the bottom of the pot. When the oil is hot, add the onion and cook, stirring, until translucent, 2 to 3 minutes. 
@@ -163,13 +163,13 @@
     <t>Keto, Paleo</t>
   </si>
   <si>
-    <t xml:space="preserve">3 pounds (1.4 kg) chicken parts—legs, thighs, or breasts
-2 tablespoons (28 g) butter 
+    <t xml:space="preserve">3 pounds chicken parts—legs, thighs, or breasts
+2 tablespoons butter 
 1/2 medium onion, chopped 
-1/4 cup (60 ml) lemon juice 
+1/4 cup lemon juice 
 1/2 teaspoon chicken bouillon concentrate 
-1/4 cup (15 g) chopped fresh parsley 
-1 tablespoon (2 g) fresh thyme leaves </t>
+1/4 cup chopped fresh parsley 
+1 tablespoon fresh thyme leaves </t>
   </si>
   <si>
     <t xml:space="preserve">Cut the chicken into serving pieces and skin. In your big, heavy skillet, over medium heat, melt the butter and start the chicken browning. 
